--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792987.791415434</v>
+        <v>1789970.201014497</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.9338174006975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>105.3975347884475</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>27.39499742567469</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>103.87444493836</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>305.5176794933398</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>41.26649993108931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>59.06146187382457</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>129.0246247964038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>74.03158105159784</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>155.6073426821509</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>129.0246247964038</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>159.8849452498396</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>143.5307186024632</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.306260043177</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938432</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>79.12324787068584</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.75250548749304</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>216.12122691551</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583928</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>209.455222674174</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>153.8202029857946</v>
       </c>
       <c r="H31" t="n">
-        <v>97.87680823333825</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>102.0005969012823</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986314</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3205,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.98569840051592</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>89.35789353273194</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.7611531036567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.453005116544</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431781</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.3715833422285</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.9194859165262</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C4" t="n">
-        <v>308.9833029886194</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8666635762836</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>158.8666635762836</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674653</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2324.402870410926</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1950.937112149846</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.797780174034</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036447</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610026</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551157</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551157</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036447</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036447</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1666.648133616381</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1297.68561667597</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>939.4199180692192</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>553.6316654709749</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>142.6457606813673</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>128.7223566199582</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656315</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656315</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>2053.247973680503</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551157</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551157</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708856551157</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E10" t="n">
-        <v>184.2708856551157</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2708856551157</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>184.2708856551157</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610026</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551157</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551157</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551157</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551157</v>
+        <v>566.6290395096265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>967.1285778917498</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>967.1285778917498</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5194,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>967.1285778917498</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5273,34 +5273,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>880.8106280646857</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1484.03077229167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.613602254709</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>966.6240513566914</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.8314722131613</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5510,43 +5510,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5598,22 +5598,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.1356072130308</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="C19" t="n">
-        <v>657.1994242851239</v>
+        <v>902.0705266475304</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5668,7 +5668,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1431.489497338212</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1231.569487253765</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1007.78407204327</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1007.78407204327</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1007.78407204327</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1007.78407204327</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X19" t="n">
-        <v>1007.78407204327</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y19" t="n">
-        <v>1007.78407204327</v>
+        <v>1071.006709575437</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3926.12130983931</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>3757.185126911404</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>3607.068487499068</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4107.76977466955</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4107.76977466955</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>4107.76977466955</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>4107.76977466955</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y22" t="n">
-        <v>4107.76977466955</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251887</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>4326.074044281171</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>4036.945405494729</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>3782.260917288842</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>475.7924673804756</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C31" t="n">
-        <v>475.7924673804756</v>
+        <v>812.5733666950175</v>
       </c>
       <c r="D31" t="n">
-        <v>475.7924673804756</v>
+        <v>662.4567272826818</v>
       </c>
       <c r="E31" t="n">
-        <v>475.7924673804756</v>
+        <v>514.5436337002886</v>
       </c>
       <c r="F31" t="n">
-        <v>475.7924673804756</v>
+        <v>514.5436337002886</v>
       </c>
       <c r="G31" t="n">
-        <v>307.6171457002962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
@@ -6649,22 +6649,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240057</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>696.5850465240057</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y31" t="n">
-        <v>475.7924673804756</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.2831413070231</v>
+        <v>1141.200876391124</v>
       </c>
       <c r="C34" t="n">
-        <v>609.3469583791162</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>459.2303189667805</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>459.2303189667805</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>459.2303189667805</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>291.0549972866011</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>140.6369888345444</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9316061372629</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y34" t="n">
-        <v>959.9316061372629</v>
+        <v>1244.231782352015</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>3079.144181652283</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3409.006809316316</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4045.44453396283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>675.0071030383399</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>506.070920110433</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>506.070920110433</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>506.070920110433</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>506.070920110433</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>337.8955984302536</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>187.4775899781969</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688027</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.497233179932</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471148</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>964.1357418247817</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227849</v>
+        <v>675.0071030383399</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021963</v>
+        <v>675.0071030383399</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985002</v>
+        <v>675.0071030383399</v>
       </c>
       <c r="X37" t="n">
-        <v>3799.634725086985</v>
+        <v>675.0071030383399</v>
       </c>
       <c r="Y37" t="n">
-        <v>3578.842145943455</v>
+        <v>675.0071030383399</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4391.604587469457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4749.779469576118</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4749.779469576118</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4749.779469576118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4573.253052299697</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,55 +7406,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4503.139178847509</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>4334.202995919602</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D43" t="n">
-        <v>4184.086356507267</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924874</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>4860.854573014292</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>4684.787643677749</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7631,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7691,7 +7691,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>814.0191024124503</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>666.1060088300571</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>519.2160613321468</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>351.0407396519673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>200.6227311999106</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>360.5026862907243</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.08475441574916</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.27839330891777</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>237.4010000402575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>154.2427457127105</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.49222514752651</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.21184691629976</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>70.11612548306732</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>77.06777566241698</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>12.67336547758296</v>
       </c>
       <c r="H31" t="n">
-        <v>51.03702013419787</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>77.83138328065499</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.43354706375607</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,13 +25132,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633815</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>21.06135193154006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.82350024843808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>116.0405633468336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.27839330891666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>8.047662122043462</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26326,22 +26326,22 @@
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
@@ -26353,7 +26353,7 @@
         <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26470,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316035.5948545326</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273932.2843600123</v>
+        <v>273517.0698505449</v>
       </c>
       <c r="D6" t="n">
-        <v>273932.2843600123</v>
+        <v>273517.0698505451</v>
       </c>
       <c r="E6" t="n">
-        <v>-143072.5384077861</v>
+        <v>-143406.7073749163</v>
       </c>
       <c r="F6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="G6" t="n">
-        <v>382087.4980691097</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="H6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="I6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="J6" t="n">
-        <v>205664.2788765168</v>
+        <v>205330.1099093874</v>
       </c>
       <c r="K6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="L6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019801</v>
       </c>
       <c r="M6" t="n">
-        <v>247286.4828352729</v>
+        <v>246952.3138681429</v>
       </c>
       <c r="N6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="O6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="P6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019801</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.80002426278304</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>243.8434339289655</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>121.2204755925377</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>41.54660308457127</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>76.41269057892197</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>307.9744687863237</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>89.55401114438779</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.68503059263338</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>249.8911917127593</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>230.6305959739027</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.14626404539135</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>92.2526980739884</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>642.8663885318325</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299061</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1789970.201014497</v>
+        <v>1865499.870679302</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>317.5247453988038</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>105.3975347884475</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>27.39499742567469</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.14545946815413</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>305.5176794933398</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>314.7158280275368</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.06146187382457</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.5467951020189</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>132.0947140777524</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.6073426821509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>159.8849452498396</v>
+        <v>84.16428381810817</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.306260043177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.32489541078262</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>79.12324787068584</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>137.9838098727421</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>102.6104623981304</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583928</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>209.455222674174</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>64.49208332113096</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8202029857946</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>69.95956591030718</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.0005969012823</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986314</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>204.175360465418</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>89.35789353273194</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>165.4039294986848</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>67.84317158411675</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.453005116544</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>191.6057157592134</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>114.0801976964109</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>2053.247973680502</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1684.28545674009</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1684.28545674009</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2359.480757510918</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.014999249838</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862863</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="C4" t="n">
-        <v>296.2710210862863</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>506.0980231475335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362306</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C5" t="n">
-        <v>940.9219833362306</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="D5" t="n">
-        <v>940.9219833362306</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>539.2271376720746</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="6">
@@ -4635,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.9299350185087</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>249.9299350185087</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185087</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>598.3578907289138</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>187.3719859393063</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4814,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>566.6290395096265</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>566.6290395096265</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>566.6290395096265</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="W10" t="n">
-        <v>566.6290395096265</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="X10" t="n">
-        <v>566.6290395096265</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y10" t="n">
-        <v>566.6290395096265</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5063,22 +5065,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775513</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5270,52 +5272,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1071.006709575437</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C19" t="n">
-        <v>902.0705266475304</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="D19" t="n">
-        <v>822.148054050878</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>383.4846246882387</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>236.5946771903283</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>236.5946771903283</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.006709575437</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>1071.006709575437</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1281.689320534781</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690278</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294727</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294727</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281171</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494729</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288842</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>3570.689985294727</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X28" t="n">
-        <v>3570.689985294727</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294727</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>981.5095496229244</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C31" t="n">
-        <v>812.5733666950175</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D31" t="n">
-        <v>662.4567272826818</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>514.5436337002886</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>514.5436337002886</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y31" t="n">
-        <v>981.5095496229244</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,19 +6718,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391124</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.231782352015</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X34" t="n">
-        <v>1244.231782352015</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y34" t="n">
-        <v>1244.231782352015</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>315.6192635197069</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.0071030383399</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C37" t="n">
-        <v>506.070920110433</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D37" t="n">
-        <v>506.070920110433</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>506.070920110433</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>506.070920110433</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>337.8955984302536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>187.4775899781969</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688027</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.497233179932</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471148</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247817</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383399</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383399</v>
+        <v>1042.712955510163</v>
       </c>
       <c r="W37" t="n">
-        <v>675.0071030383399</v>
+        <v>1042.712955510163</v>
       </c>
       <c r="X37" t="n">
-        <v>675.0071030383399</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.0071030383399</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7184,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,13 +7396,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7412,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>3757.185126911405</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1323227212476</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1323227212476</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1323227212476</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>4119.662436868821</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>3926.121309839312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,16 +7633,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,7 +7651,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,22 +7660,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028587</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1072.688634109613</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862102</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978135</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>20.63789864135481</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>28.12263706262993</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>213.2603911806629</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.5070847711547</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>69.49222514752651</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10.93001849479407</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>149.5271809256976</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>77.06777566241698</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>154.0925700309638</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>12.67336547758296</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>216.5634324262838</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.83138328065499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>21.53429492361911</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>21.06135193154006</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>86.73371382514321</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>99.40364951451109</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>116.0405633468336</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>26.97893759288138</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>107.4673633619784</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26323,7 +26325,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26332,28 +26334,28 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26476,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26522,46 +26524,46 @@
         <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505449</v>
+        <v>273517.0698505447</v>
       </c>
       <c r="D6" t="n">
         <v>273517.0698505451</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749163</v>
+        <v>-143406.7073749159</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="H6" t="n">
         <v>381753.3291019802</v>
       </c>
       <c r="I6" t="n">
+        <v>381753.3291019801</v>
+      </c>
+      <c r="J6" t="n">
+        <v>205330.1099093872</v>
+      </c>
+      <c r="K6" t="n">
         <v>381753.3291019802</v>
       </c>
-      <c r="J6" t="n">
-        <v>205330.1099093874</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>381753.3291019803</v>
       </c>
-      <c r="L6" t="n">
-        <v>381753.3291019801</v>
-      </c>
       <c r="M6" t="n">
-        <v>246952.3138681429</v>
+        <v>246952.313868143</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="O6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019801</v>
+        <v>381753.3291019802</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>64.40562467345802</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>243.8434339289655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>121.2204755925377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>213.3775388684369</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>76.41269057892197</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>92.16021771417462</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>89.55401114438779</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>19.59084822180907</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>281.6894559430426</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.6305959739027</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>92.2526980739884</v>
+        <v>167.9733595057198</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958058</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>353.8324720393676</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>71.3855385946888</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36834,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>178.6980756505692</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299061</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1865499.870679302</v>
+        <v>1858482.855787591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>317.5247453988038</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>86.82299416240485</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>73.14545946815413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>314.7158280275368</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>36.31606325004106</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>36.78424627109328</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>232.5467951020189</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>132.0947140777524</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>84.16428381810817</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385057</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>85.42291167995924</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.32489541078262</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>187.0035009001196</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9838098727421</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>221.2446350430727</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>102.6104623981304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>191.6534898356761</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>95.31089658769065</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.49208332113096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>69.95956591030718</v>
+        <v>211.2541671901481</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>253.148856180583</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>204.175360465418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>165.4039294986848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3228038217191</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>67.84317158411675</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>256.6047146313638</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.6057157592134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>114.0801976964109</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2053.247973680502</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="C2" t="n">
-        <v>1684.28545674009</v>
+        <v>1482.324363426885</v>
       </c>
       <c r="D2" t="n">
-        <v>1684.28545674009</v>
+        <v>1124.058664820135</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1124.058664820135</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>713.0727600305272</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>295.1089519287141</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>2443.387305656314</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y2" t="n">
-        <v>2053.247973680502</v>
+        <v>1851.286880367297</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.977907210731</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C5" t="n">
-        <v>925.0153902703189</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D5" t="n">
-        <v>925.0153902703189</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E5" t="n">
-        <v>539.2271376720746</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>508.5896820939362</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>90.6258739921231</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>90.6258739921231</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.577747274852</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="6">
@@ -4664,13 +4664,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>690.9731798921986</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>690.9731798921986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.10866026757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>984.1461433271581</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>984.1461433271581</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>598.3578907289138</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>187.3719859393063</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>613.6976369609572</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>613.6976369609572</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5056,31 +5056,31 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231267</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277037</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315608</v>
+        <v>901.6749225845927</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975555</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>397.7517393246784</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>397.7517393246784</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655749</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286143</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>579.4002041549181</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>579.4002041549181</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947357</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947357</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1310.023845406267</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.428715221413</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.3977182706318</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C19" t="n">
-        <v>531.3977182706318</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D19" t="n">
-        <v>531.3977182706318</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E19" t="n">
-        <v>383.4846246882387</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F19" t="n">
-        <v>236.5946771903283</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>236.5946771903283</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706318</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>531.3977182706318</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.3977182706318</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.436841221466</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,31 +6004,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>167.8887746690278</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>316.9584588710876</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>881.753191430675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>712.8170085027681</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1284.194235404445</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.194235404445</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X25" t="n">
-        <v>1284.194235404445</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y25" t="n">
-        <v>1063.401656260915</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,10 +6250,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.6648329070714</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>792.456816243504</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.3132977373111</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>1028.046300141057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X31" t="n">
-        <v>1028.046300141057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1028.046300141057</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>485.404702608941</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488384</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V34" t="n">
-        <v>898.7925182488384</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W34" t="n">
-        <v>898.7925182488384</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X34" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="35">
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>315.6192635197069</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>929.5163332765956</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1236.836466556557</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>1042.712955510163</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>1042.712955510163</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>814.7234046121455</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y37" t="n">
-        <v>593.9308254686154</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>498.905640096559</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>745.6707680030231</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7408,37 +7408,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3926.121309839312</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C43" t="n">
-        <v>3757.185126911405</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
-        <v>3607.06848749907</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>4637.069157803799</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>4637.069157803799</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W43" t="n">
-        <v>4347.651987766838</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X43" t="n">
-        <v>4119.662436868821</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y43" t="n">
-        <v>3926.121309839312</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1072.688634109613</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>783.5599953231708</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>783.5599953231708</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>494.1428252862102</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>285.1031356539327</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.4973336130505</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>20.63789864135481</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772039</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>29.47535963978211</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>202.5230052237941</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>28.12263706262993</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>87.16935584025333</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>213.2603911806629</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>230.7151863772033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>140.2867437090779</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.5070847711547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>10.91730908348367</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>10.93001849479407</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>64.99271735550465</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>149.5271809256976</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>26.93116351641871</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>130.3987588013465</v>
       </c>
       <c r="Y28" t="n">
-        <v>154.0925700309638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>216.5634324262838</v>
+        <v>75.26883114644286</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>33.08849621799433</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>21.53429492361911</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>86.73371382514321</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.38685156731808</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.40364951451109</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>29.91828370522722</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.97893759288138</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4673633619784</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651768</v>
@@ -26325,10 +26325,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26343,13 +26343,13 @@
         <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26435,7 +26435,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26447,10 +26447,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871669</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505447</v>
+        <v>273517.0698505448</v>
       </c>
       <c r="D6" t="n">
         <v>273517.0698505451</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749159</v>
+        <v>-144381.2986346383</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422591</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019801</v>
+        <v>380778.7378422584</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093872</v>
+        <v>204355.5186496655</v>
       </c>
       <c r="K6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="L6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="M6" t="n">
-        <v>246952.313868143</v>
+        <v>245977.7226084211</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422584</v>
       </c>
       <c r="O6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422588</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.40562467345802</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.0997786019523</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>213.3775388684369</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>92.16021771417462</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.6152529948202</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>109.8809457090646</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>19.59084822180907</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>281.6894559430426</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>167.9733595057198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,19 +34783,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L12" t="n">
-        <v>534.360840609957</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>334.861035854159</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>353.8324720393676</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.3855385946888</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>409.6164201553188</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>178.6980756505692</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>237.7447944281926</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>420.3538061121876</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>479.9728913332276</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1858482.855787591</v>
+        <v>1863422.118636623</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>113.4585558833472</v>
       </c>
       <c r="H2" t="n">
-        <v>86.82299416240485</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.32882004050029</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.31606325004106</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>111.5522143524695</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>36.78424627109328</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481157</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>346.6999128968763</v>
+        <v>346.699912896879</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250814</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229324</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365817</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385057</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.20012723755028</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>85.42291167995924</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7.406417419882242</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.0035009001196</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>181.8344492986315</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>27.55584844405814</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>221.2446350430727</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>49.12791688416515</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.6534898356761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>7.406417419882467</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>95.31089658769065</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.5269768002182</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>211.2541671901481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>21.66714102769374</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>253.148856180583</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151925</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3228038217191</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>84.03859061114251</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>105.8261359933658</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>256.6047146313638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.7395205132413</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1851.286880367297</v>
+        <v>1288.509552617345</v>
       </c>
       <c r="C2" t="n">
-        <v>1482.324363426885</v>
+        <v>919.5470356769335</v>
       </c>
       <c r="D2" t="n">
-        <v>1124.058664820135</v>
+        <v>561.2813370701831</v>
       </c>
       <c r="E2" t="n">
-        <v>1124.058664820135</v>
+        <v>175.4930844719389</v>
       </c>
       <c r="F2" t="n">
-        <v>713.0727600305272</v>
+        <v>168.5475837227354</v>
       </c>
       <c r="G2" t="n">
-        <v>295.1089519287141</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1851.286880367297</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.5755868835438</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>919.5755868835438</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>919.5755868835438</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>919.5755868835438</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>508.5896820939362</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>90.6258739921231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>90.6258739921231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2584.470086621789</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835438</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>509.3247150619588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>690.9731798921986</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>690.9731798921986</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>690.9731798921986</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>690.9731798921986</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>690.9731798921986</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>690.9731798921986</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>690.9731798921986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>690.9731798921986</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4801,49 +4801,49 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733134</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224086</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791255</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548718</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834951</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473043</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129472</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1309.714918859358</v>
       </c>
       <c r="X8" t="n">
         <v>959.5129866402885</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615932</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598698</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866328</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.7118141694745</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>210.7222632714572</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.9429818203645</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256437</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277037</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845927</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
         <v>1670.043068977054</v>
@@ -5138,7 +5138,7 @@
         <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918914</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>397.7517393246784</v>
+        <v>738.7219969042607</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246784</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028593</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771462</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655749</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286143</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>579.4002041549181</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.4002041549181</v>
+        <v>920.3704617345004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5287,43 +5287,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1310.023845406267</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1086.238430195773</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1086.238430195773</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>831.5539419898857</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W16" t="n">
-        <v>542.1367719529251</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X16" t="n">
-        <v>542.1367719529251</v>
+        <v>792.4568162435045</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>571.6642370999743</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201021</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201021</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201021</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201021</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,19 +5779,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.3351829786183</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>272.9643753902125</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5913,10 +5913,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.436841221466</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.752353015579</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3351829786183</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>731.3351829786183</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.3351829786183</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305963</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211726</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011343</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>792.4568162435047</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>571.6642370999746</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790663</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W31" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201023</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
@@ -6785,7 +6785,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1477.030269519829</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1477.030269519829</v>
       </c>
       <c r="U34" t="n">
-        <v>1019.424940013486</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="V34" t="n">
-        <v>764.7404518075996</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W34" t="n">
-        <v>475.3232817706389</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X34" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>796.3635653766206</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1925.508393158044</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O36" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003442</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>498.905640096559</v>
+        <v>498.9056400965586</v>
       </c>
       <c r="L39" t="n">
-        <v>745.6707680030231</v>
+        <v>745.6707680030228</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N39" t="n">
         <v>1843.901542059517</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839242008</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688123</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799416</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471245</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119734</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035286</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247917</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247917</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>964.1357418247917</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247917</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>964.1357418247917</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>964.1357418247917</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.8104215925219</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>612.6533566105702</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>462.5367171982344</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>462.5367171982344</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>315.6467697003241</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>415.8104215925219</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X43" t="n">
-        <v>415.8104215925219</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8104215925219</v>
+        <v>781.5895395384771</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050799</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.4973336130505</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445214</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814589</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>159.0121003135233</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>29.47535963978115</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>145.2351313103784</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>87.16935584025333</v>
+        <v>87.16935584025288</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>83.04669386107756</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>140.2867437090779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>172.4255627620551</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>10.91730908348367</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.71311175975779</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>121.0596245741542</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>64.99271735550465</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>203.0097264396628</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.93116351641871</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>172.4255627620548</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>130.3987588013465</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315936</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>75.26883114644286</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>176.2536689559095</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>33.08849621799433</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338488</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.38685156731808</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>95.79338957079479</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>60.66743247001175</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>29.91828370522722</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407087</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="G2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="I2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
@@ -26349,10 +26349,10 @@
         <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.987022516113938e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768968</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26435,10 +26435,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26450,16 +26450,16 @@
         <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340951</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639996</v>
+        <v>-316450.8093639998</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505448</v>
+        <v>273517.0698505451</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.0698505451</v>
+        <v>273517.0698505444</v>
       </c>
       <c r="E6" t="n">
-        <v>-144381.2986346383</v>
+        <v>-143504.1665008879</v>
       </c>
       <c r="F6" t="n">
-        <v>380778.7378422591</v>
+        <v>381655.869976008</v>
       </c>
       <c r="G6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="H6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="I6" t="n">
-        <v>380778.7378422584</v>
+        <v>381655.869976008</v>
       </c>
       <c r="J6" t="n">
-        <v>204355.5186496655</v>
+        <v>205232.650783415</v>
       </c>
       <c r="K6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.869976008</v>
       </c>
       <c r="L6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="M6" t="n">
-        <v>245977.7226084211</v>
+        <v>246854.8547421708</v>
       </c>
       <c r="N6" t="n">
-        <v>380778.7378422584</v>
+        <v>381655.869976008</v>
       </c>
       <c r="O6" t="n">
-        <v>380778.7378422588</v>
+        <v>381655.869976008</v>
       </c>
       <c r="P6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170872</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545563</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370142</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>300.3256141374478</v>
       </c>
       <c r="H2" t="n">
-        <v>237.0997786019523</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>18.87113914803671</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>115.6152529948202</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>104.8961060051883</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27821,25 +27821,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>109.8809457090646</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23.03118778159273</v>
+        <v>23.03118778159006</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853693</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491422</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551307</v>
       </c>
     </row>
     <row r="11">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340048</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141002</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554475</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630673</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338308</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.371903895467</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.988205504414</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633811</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727388</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473563</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141122</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188926</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890693</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396487</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649104</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.416982047801</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983125</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.315665592305</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.152864647958</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639067</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034989</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131475</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.27496629637267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061916</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078621</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644451</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492008</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813584</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302251</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175858</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383812</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678017</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701168</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197228</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315616</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33906,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33927,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34055,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34067,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435305</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116801</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898692</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770702</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.82557620313</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730067</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262941</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245901</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137343</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713965</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458882</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557983</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873161</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549068</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879395</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>334.861035854159</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507427</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36129,22 +36129,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>366.1055152450481</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>236.568774571306</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502041</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,19 +37235,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>427.5988335514868</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,19 +37472,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37554,19 +37554,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7447944281926</v>
+        <v>237.7447944281922</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016557065</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
